--- a/device/連動図表.xlsx
+++ b/device/連動図表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE677A43-BF65-4334-81E6-E7A8F0F461E2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E711DA-EC42-4CAC-8EC1-5688A34E0E67}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,8 +550,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1000125" y="1120140"/>
-          <a:ext cx="600075" cy="480060"/>
+          <a:off x="993913" y="1113928"/>
+          <a:ext cx="596348" cy="476333"/>
           <a:chOff x="1000125" y="200025"/>
           <a:chExt cx="1000125" cy="800100"/>
         </a:xfrm>
@@ -957,8 +957,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5600700" y="1417320"/>
-          <a:ext cx="600075" cy="240030"/>
+          <a:off x="5565913" y="1408623"/>
+          <a:ext cx="596348" cy="238788"/>
           <a:chOff x="5600700" y="1354455"/>
           <a:chExt cx="600075" cy="240030"/>
         </a:xfrm>
@@ -1120,8 +1120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5600700" y="800100"/>
-          <a:ext cx="600075" cy="240030"/>
+          <a:off x="5565913" y="795130"/>
+          <a:ext cx="596348" cy="238788"/>
           <a:chOff x="5610225" y="760095"/>
           <a:chExt cx="600075" cy="240030"/>
         </a:xfrm>
@@ -1283,8 +1283,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="2200275" y="1971675"/>
-          <a:ext cx="600075" cy="240030"/>
+          <a:off x="2186609" y="1960493"/>
+          <a:ext cx="596348" cy="237546"/>
           <a:chOff x="5600700" y="1354455"/>
           <a:chExt cx="600075" cy="240030"/>
         </a:xfrm>
@@ -1446,8 +1446,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="2200275" y="1238250"/>
-          <a:ext cx="600075" cy="240030"/>
+          <a:off x="2186609" y="1230796"/>
+          <a:ext cx="596348" cy="238787"/>
           <a:chOff x="5610225" y="760095"/>
           <a:chExt cx="600075" cy="240030"/>
         </a:xfrm>
@@ -1609,8 +1609,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1743075" y="1809751"/>
-          <a:ext cx="209550" cy="95250"/>
+          <a:off x="1733136" y="1798569"/>
+          <a:ext cx="208307" cy="95250"/>
           <a:chOff x="6400800" y="2200275"/>
           <a:chExt cx="600075" cy="200025"/>
         </a:xfrm>
@@ -1764,8 +1764,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6477000" y="1809751"/>
-          <a:ext cx="209550" cy="95250"/>
+          <a:off x="6437243" y="1798569"/>
+          <a:ext cx="208308" cy="95250"/>
           <a:chOff x="6400800" y="2200275"/>
           <a:chExt cx="600075" cy="200025"/>
         </a:xfrm>
@@ -2249,8 +2249,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="7000875" y="2120265"/>
-          <a:ext cx="600075" cy="480060"/>
+          <a:off x="6957391" y="2107841"/>
+          <a:ext cx="596348" cy="476333"/>
           <a:chOff x="1000125" y="200025"/>
           <a:chExt cx="1000125" cy="800100"/>
         </a:xfrm>
@@ -2790,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
